--- a/sumatera-selatan/sumatera-selatan-mei.xlsx
+++ b/sumatera-selatan/sumatera-selatan-mei.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>ID WMO</t>
   </si>
@@ -165,6 +165,27 @@
   </si>
   <si>
     <t>24-05-2025</t>
+  </si>
+  <si>
+    <t>25-05-2025</t>
+  </si>
+  <si>
+    <t>26-05-2025</t>
+  </si>
+  <si>
+    <t>27-05-2025</t>
+  </si>
+  <si>
+    <t>28-05-2025</t>
+  </si>
+  <si>
+    <t>29-05-2025</t>
+  </si>
+  <si>
+    <t>30-05-2025</t>
+  </si>
+  <si>
+    <t>31-05-2025</t>
   </si>
   <si>
     <t>KETERANGAN:</t>
@@ -619,10 +640,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A33" sqref="A33:K33"/>
+      <selection activeCell="A40" sqref="A40:K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1548,52 +1569,262 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="A33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2">
+        <v>24.9</v>
+      </c>
+      <c r="C33" s="2">
+        <v>33.8</v>
+      </c>
+      <c r="D33" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="E33" s="2">
+        <v>83.0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="H33" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>243</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="2">
+        <v>21.9</v>
+      </c>
+      <c r="C34" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="D34" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="E34" s="2">
+        <v>87.0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>83.3</v>
+      </c>
+      <c r="G34" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="H34" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>160</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>34.7</v>
+      </c>
+      <c r="D35" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="H35" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>80</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>50</v>
+      <c r="A36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>33.7</v>
+      </c>
+      <c r="D36" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="E36" s="2">
+        <v>86.0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>160</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>51</v>
+      <c r="A37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="C37" s="2">
+        <v>33.7</v>
+      </c>
+      <c r="D37" s="2">
+        <v>28.3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>84.0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="G37" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="H37" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>160</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>52</v>
+      <c r="A38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="C38" s="2">
+        <v>32.3</v>
+      </c>
+      <c r="D38" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>81.0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>8888.0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="H38" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>130</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" t="s">
-        <v>53</v>
+      <c r="A39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="2">
+        <v>25.9</v>
+      </c>
+      <c r="C39" s="2">
+        <v>33.4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>82.0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="H39" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>180</v>
+      </c>
+      <c r="J39" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
-        <v>56</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
@@ -1623,6 +1854,41 @@
     <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
